--- a/Svelte Cheatsheet.xlsx
+++ b/Svelte Cheatsheet.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conor\My Drive\Cheatsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF654FD9-7BBC-444A-8E9A-3030487C7B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255CC86E-F8C8-4AD5-AC35-E69E703173C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-885" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A82B5E65-1D29-4645-8112-DED4FBF5EDB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Svelte Explained" sheetId="1" r:id="rId1"/>
     <sheet name="Svelte Basics" sheetId="2" r:id="rId2"/>
-    <sheet name="Svelte Intermediate" sheetId="3" r:id="rId3"/>
+    <sheet name="Svelte Advanced" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="89">
   <si>
     <t>Concept</t>
   </si>
@@ -273,12 +273,6 @@
     {/if}</t>
   </si>
   <si>
-    <t>General components</t>
-  </si>
-  <si>
-    <t>&lt;img src={src} alt="nah"&gt;</t>
-  </si>
-  <si>
     <t>Nested components</t>
   </si>
   <si>
@@ -490,12 +484,551 @@
 If we wanted to pop the last value from the list using Svelte, we'd do this:
 numbers = numbers.slice(0, -1); // Remove the last element (instead of .pop())</t>
   </si>
+  <si>
+    <t>Declaring props</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Main code:
+&lt;script&gt;
+    import Nested from './Nested.svelte';
+&lt;/script&gt;
+&lt;Nested </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>answer={42}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /&gt;
+Nested.svelte code:
+&lt;script&gt;
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">export </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">let answer;
+&lt;/script&gt;
+&lt;p&gt;The answer is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{answer}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/p&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Props are one of the most important thing in any web framework, along with components. Props is short for properties, and allow us to pass data from one component to another. We declare a property within the Nested.svelte app, and we can export it to our main app using the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">export </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>keyword.
+One of the key things that we need to do is we need to assign the variable within our main application. We will be loading the main application, and be shown on the screen/used for additional explanations. I don't think I'm explaining it that well, but the code to the left basically will show a p section on the webpage which says "The answer is 42".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We can declare default values for props also:
+&lt;script&gt;
+    export </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>let answer = "a mystery";</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;/script&gt;
+&lt;p&gt;The answer is {answer}&lt;/p&gt;
+These default values can still be overridden in the main app section with &lt;Nested answer={42} /&gt;, but if they're not then answer in this instance automatically becomes "a mystery".</t>
+    </r>
+  </si>
+  <si>
+    <t>Spread props</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;script
+  import PackageInfo from './PackageInfo.svelte';
+  const pkg = {name: 'svelte',
+    speed: 'blazing',
+    version: 4,
+    website: 'https://svelte.dev'
+  };
+&lt;/script&gt;
+&lt;PackageInfo</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {…pkg} </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>We could add multiple props from a single dictionary in two ways: we could either manually write them all out within the PackageInfo tag, which would take a long time (it would require you writing name={pkg.name}, speed={pkg.speed}… etc). Or you could simply try to add them all in at the same time using the {...pkg} syntax.
+It's slightly odd to use, but it probably makes sense after a certain period of time.</t>
+  </si>
+  <si>
+    <t>If, else if and else blocks within svelte</t>
+  </si>
+  <si>
+    <t>{#if count &gt; 10}
+  &lt;p&gt;{count} is greater than 10&lt;/p&gt;
+{:else if count &gt; 5}
+  &lt;p&gt;yeah boi&lt;/p&gt;
+{:else}
+  &lt;p&gt;Cheeky Chinese at Chom Chom&lt;/p&gt;
+{/if}</t>
+  </si>
+  <si>
+    <t>Svelte allows you to place if, else if and else blocks within the .svelte file. What is different about this kind of if statement compared to the if statements that would be placed within &lt;script&gt; tags is that this type is only really used to create and show html code. 
+If we want to have an if statement, we have to place it within curly brackets and add a # to the beginning, followed by a {/if} at the end. If we want to add else if and else, these also go within curly brackets, but have a colon instead of a hashtag.</t>
+  </si>
+  <si>
+    <t>Keyed each blocks</t>
+  </si>
+  <si>
+    <t>These Keyed each blocks are fucking ridiculous to understand. I'll just copy what learn.svelte.dev says about them, because I honestly cannot be asked:
+By default, then you modify the value of an each block, it will add and remove DOM nodes at the end of the block, and update any values that have changed. That might not be what you want.
+It's easier to show why than to explain. The &lt;Thing&gt; component sets the emoji as a constant on initialization, but the name is passed in via a prop.
+Click the 'Remove first thing' button a few times, and notice what happens:
+It removes the last component.
+It then updates the name value in the remaining DOM nodes, but not the emoji, which is fixed when each &lt;Thing&gt; is created.
+Instead, we'd like to remove only the first &lt;Thing&gt; component and its DOM node, and leave the others unaffected.
+To do that, we specify a unique identifier (or "key") for each iteration of the each block:
+App.svelte
+{#each things as thing (thing.id)}
+	&lt;Thing name={thing.name}/&gt;
+{/each}
+Here, (thing.id) is the key, which tells Svelte how to figure out what to update when the values (name in this example) change.</t>
+  </si>
+  <si>
+    <t>They're hardly used, and can be solved in a much easier to remember way by turning const emoji = emojis[name]; into $: emoji = emojis[name]
+I don't think that the $: method is as efficient, but tbh I literally don't understand/care to understand how this stuck alternative method works</t>
+  </si>
+  <si>
+    <t>Thing.svelte:
+&lt;script&gt;
+  const emojis = {apple: '🍎', banana: '🍌', carrot: '🥕', doughnut: '🍩', egg: '🥚'};
+  export let name;  const emoji = emojis[name];
+&lt;/script&gt;
+&lt;p&gt;{emoji} = {name}&lt;/p&gt;
+App.svelte:
+&lt;script&gt;
+  import Thing from './Thing.svelte';
+  let things = [{ id: 1, name: 'apple' }, { id: 2, name: 'banana' }, { id: 3, name: 'carrot' }, { id: 4, name: 'doughnut' },{ id: 5, name: 'egg' }];
+  function handleClick() {
+ things = things.slice(1); }
+&lt;/script&gt;
+&lt;button on:click={handleClick}&gt;
+ Remove first thing
+&lt;/button&gt;
+{#each things as thing (thing.id)}
+  &lt;Thing name={thing.name} /&gt;
+{/each}</t>
+  </si>
+  <si>
+    <t>Await blocks</t>
+  </si>
+  <si>
+    <t>getRandomNumber .svelte file for getting the random number:
+    if (res.ok) {
+        return await res.text();
+    } else {
+        throw new Error('Request failed'); // Sometimes the API will fail!
+    }
+function handleClick() {
+  promise = getRandomNumber();
+}
+{#await promise}
+  &lt;p&gt;...waiting&lt;/p&gt;
+{:then number}
+  &lt;p&gt;The number is {number}&lt;/p&gt;
+{:catch error}
+  &lt;p style="color: red"&gt;{error.message}&lt;/p&gt;
+{/await}</t>
+  </si>
+  <si>
+    <t>The code is organised like this:
+{A trigger called promise has been set off, and now we are waiting for a proper response}
+  &lt;p&gt;HTML code here&lt;/p&gt;
+{if the response is absolutely find and normal, then we produce this HTML code}
+ &lt;p&gt;yeah&lt;/p&gt;
+{if the response is wrong, and there's an error, then we are going to throw an Error (as specified in the getRandomNumber svelte file, and we're going to produce this other text instead}
+  &lt;p&gt;{error.message}&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Most web applications have to deal with asynchronous data at some point. With this code, multiple things are going on. Firstly, we are awaiting that a promise has been made (that is to say, when we have clicked on the button and created the variable promise using the getRandomNumber() method), then it will begin the await. We then have a kind of try-catch thing going on. If it manages to grab a number, then it'll produce one set of code. If it doesn't managed to grab it, then it'll produce another set of code.
+Dealing with asynchronous data is not something that I'm that familiar with, although it obviously is an important thing with respect to coding for the web.
+The variable name within the catch has to be called error.</t>
+  </si>
+  <si>
+    <t>DOM events</t>
+  </si>
+  <si>
+    <t>&lt;script&gt;
+  let text = '';
+  function handleInputChange(event) {
+    text = event.target.value;
+  }
+&lt;/script&gt;
+&lt;input type="text" on:input={handleInputChange} placeholder="Type something"&gt;
+&lt;p&gt;{text}&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>More complex example for mouse movement:
+&lt;script&gt;
+  let m = { x: 0, y: 0 };
+  function handleMove(event) {
+    m.x = event.clientX;
+    m.y = event.clientY;
+  }
+&lt;/script&gt;
+&lt;div on:pointermove={handleMove}&gt;
+ The pointer is at {m.x} x {m.y}
+&lt;/div&gt;
+&lt;style&gt;
+  div {
+    position: fixed; left: 0; top: 0; width: 100%; height: 100%; padding: 1rem;
+  }
+&lt;/style&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DOM (Document Object Model) events refer to changes made on a page as a result of functions triggered by events on the page. In this example, we've got a DOM event triggered by text being input into a text box. When text is inserted into the box, we trigger the handleInputChange function, which takes in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>event</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. We then change the displayed to whatever is currently in the box itself.
+The example on the right is a DOM event for mouse movement. The event that is taken in from the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>on:pointermove</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is the position of the mouse, and you can get the X and Y coordinates by using event.clientX and event.clientY</t>
+    </r>
+  </si>
+  <si>
+    <t>DOM event handlers inline (within the &lt;div&gt;)</t>
+  </si>
+  <si>
+    <t>&lt;div on:pointermove={(e) =&gt; {m = {x: e.clientX, y: e.clientY};}}&gt;
+  The pointer is at {m.x} x {m.y}
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>DOM events can of course be placed within the div tag, p tag, or whatever kind of tag if you want to do event handling right there and then with an arrow function. It could be useful for "simplifying" code, but I personally prefer the other method.</t>
+  </si>
+  <si>
+    <t>The Once event modifier</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;button on:click</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|once</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>={() =&gt; alert("KFC")}&gt;
+  yeah
+&lt;/button&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">There are multiple types of event modifiers that can added onto a single event (but they're so niche that they've not even worth mentioning tbh). The top one is the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>once</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> event modifier. The user clicks the button, it works the first time. But if they try again without reloading the page it will no longer work.</t>
+    </r>
+  </si>
+  <si>
+    <t>Component Events</t>
+  </si>
+  <si>
+    <t>App.svelte:
+&lt;script&gt;
+  import Inner from './Inner.svelte';
+  function handleMessage(event) {
+    alert(event.detail.text);}
+&lt;/script&gt;
+&lt;Inner on:click = {handleMessage} /&gt;
+Inner.svelte:
+&lt;script&gt;
+  import { createEventDispatcher } from 'svelte';
+  const dispatch = createEventDispatcher();
+  function sayHello() {
+    dispatch('click', {
+      text: 'Hello!'
+    });
+  }
+&lt;/script&gt;
+&lt;button on:click={sayHello}&gt;
+	Click to say hello
+&lt;/button&gt;</t>
+  </si>
+  <si>
+    <t>This is really very complicated to explain, but in short, all of this code is a way of creating custom event handlers, and specifically event dispatchers.
+If we start simply, the first thing we're doing is bringing in Inner.svelte into App.svelte. This means that we're creating a button, and we're giving it an on:click event handler. When the button is clicked, it goes to the sayHello() function, which then does a dispatch.
+To create a dispatch, you first have to import the createEventDispatch item from "svelte", and then assign a variable/const with whatever name as a createEventDispatch() object/item/whatever it is.
+The dispatch is kind of strange. We give is a custom event called click (happens to also be the name of a proper event), and then we later on provide a text value that says "Hello!". When we look back to our App.svelte file, we can see that the Inner tag has an on:click, which calls its own function called handleMessage, which is already within its own file. We have an event which is passed through, in which we have assigned the text attribute to "Hello!", and then we end up calling this as an alert.
+It's a very convoluted way of creating component events. It's kind of strange, but it ends up working.</t>
+  </si>
+  <si>
+    <t>ChatGPT explain:
+In App.svelte:
+- We import the Inner component from './Inner.svelte'.
+- We define a function handleMessage(event) to handle the custom event dispatched by the Inner component.
+- We render the Inner component and attach an event listener (on:click) to it. This event listener calls the handleMessage function when the custom event is emitted.
+In Inner.svelte:
+- We import the createEventDispatcher function from 'svelte'.
+    We create an event dispatcher named dispatch using createEventDispatcher().
+- We define a function sayHello() that dispatches a custom event named 'click' with a detail object containing the text 'Hello!'.
+- We render a button that, when clicked, triggers the sayHello function, resulting in the dispatch of the custom event.
+Summary:
+- The Inner component dispatches a custom event named 'click' when the button is clicked.
+- The App component listens for the 'click' event emitted by the Inner component and handles it by displaying an alert with the text 'Hello!'.
+- This demonstrates how parent and child components can communicate via custom events in a Svelte application.</t>
+  </si>
+  <si>
+    <t>Event forwarding</t>
+  </si>
+  <si>
+    <t>Same code as for Component events:
+New file called Outer.svelte
+&lt;script&gt;
+  import Inner from './Inner.svelte';
+&lt;/script&gt;
+&lt;Inner /&gt;</t>
+  </si>
+  <si>
+    <t>With event forwarding, we can create multiple svelte files forward the createEventDispatcher from the Inner.svelte file to the Outer.svelte file. Although with the amount of code that is being produced here it isn't practical, it highlights creating multiple files which are responsible for a single function. An Inner component can be responsible for when the action is triggered, and the Outer component can be responsible for handling it.</t>
+  </si>
+  <si>
+    <t>Text Bindings</t>
+  </si>
+  <si>
+    <t>&lt;script&gt;
+  let name = 'world';
+&lt;/script&gt;
+&lt;input bind:value={name} /&gt;
+&lt;h1&gt;Hello {name}!&lt;/h1&gt;</t>
+  </si>
+  <si>
+    <t>Numerical binding</t>
+  </si>
+  <si>
+    <t>&lt;script&gt;
+  let a = 1;
+  let b = 2;
+&lt;/script&gt;
+&lt;label&gt;
+  &lt;input type="number" bind:value={a} min="0" max="10" /&gt;
+  &lt;input type="range" bind:value={a} min="0" max="10" /&gt;
+&lt;/label&gt;
+&lt;label&gt;
+  &lt;input type="number" bind:value={b} min="0" max="10" /&gt;
+  &lt;input type="range" bind:value={b} min="0" max="10" /&gt;
+&lt;/label&gt;
+&lt;p&gt;{a} + {b} = {a + b}&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>We can do a similar kind of binding here also. Here, we're binding the variables a and b (both representing different numbers), this time we're binding a text input that only takes numbers, and a range bar that can be adjusted to represent different values. By binding these two input types, when the number input goes up, the range input copies it, and vise versa.</t>
+  </si>
+  <si>
+    <t>Checkbox binding</t>
+  </si>
+  <si>
+    <t>&lt;script&gt;let yes = false;&lt;/script&gt;
+&lt;label&gt;
+  &lt;input type="checkbox" bind:checked={yes} /&gt;
+  Yes! Send me regular email spam
+&lt;/label&gt;
+{#if yes}
+  &lt;p&gt;
+    Thank you. We will bombard your inbox and sell your personal details.
+  &lt;/p&gt;
+{:else}
+  &lt;p&gt;
+    You must opt in to continue. If you're not paying, you're the product.
+  &lt;/p&gt;
+{/if}
+&lt;button disabled={!yes}&gt;Subscribe&lt;/button&gt;</t>
+  </si>
+  <si>
+    <t>Extremely useful. When a checkbox has been ticked (basically selected), we can bind the checked value to a variable such as yes. When it is yes (when the tickbox has been selected), we can then perform an if statement that will allow us to disable/enable a box, show specific text, or do whatever other method we'd like to have done as a result.</t>
+  </si>
+  <si>
+    <t>Bindings are generally pretty simple to understand. With this textbox example, if we wanted content from the textbox to immediately be shown on screen, we'd have two choices: either create an on:input event handler that triggers every time text is added in the textbox, and adjust it accordingly. Or, the much simpler method: create a bind with bind:value={name}, and force the values to change all at once with a simple bit of svelte syntax.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -600,6 +1133,32 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -623,32 +1182,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -749,8 +1282,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{291B4586-C9E6-49D8-99C6-B13946B84F4F}" name="Table2" displayName="Table2" ref="A1:D10" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12">
-  <autoFilter ref="A1:D10" xr:uid="{291B4586-C9E6-49D8-99C6-B13946B84F4F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{291B4586-C9E6-49D8-99C6-B13946B84F4F}" name="Table2" displayName="Table2" ref="A1:D19" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12">
+  <autoFilter ref="A1:D19" xr:uid="{291B4586-C9E6-49D8-99C6-B13946B84F4F}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{0B59059B-6C12-4308-9D8D-74A1B4D5674C}" name="Concept" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{40764E85-42F5-431A-8E38-92945708D70C}" name="Code" dataDxfId="10"/>
@@ -762,13 +1295,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D8977E2F-DCEB-4C09-B4CC-5E0E79863E05}" name="Table3" displayName="Table3" ref="A1:D2" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="6" tableBorderDxfId="7">
-  <autoFilter ref="A1:D2" xr:uid="{D8977E2F-DCEB-4C09-B4CC-5E0E79863E05}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D8977E2F-DCEB-4C09-B4CC-5E0E79863E05}" name="Table3" displayName="Table3" ref="A1:D5" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4">
+  <autoFilter ref="A1:D5" xr:uid="{D8977E2F-DCEB-4C09-B4CC-5E0E79863E05}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{826E831A-0DD2-43FC-90C5-376CB5B711D4}" name="Concept" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{B51AED73-DBC7-4657-8226-D902C9986440}" name="Code" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{D0556EFE-7A78-4E71-8282-0B1F4B9D934C}" name="Explained" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{53958432-BD77-42D9-8310-FA52D86A13CD}" name="Notes" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{826E831A-0DD2-43FC-90C5-376CB5B711D4}" name="Concept" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{B51AED73-DBC7-4657-8226-D902C9986440}" name="Code" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{D0556EFE-7A78-4E71-8282-0B1F4B9D934C}" name="Explained" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{53958432-BD77-42D9-8310-FA52D86A13CD}" name="Notes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1077,7 +1610,7 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="42" style="1" customWidth="1"/>
@@ -1086,7 +1619,7 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1100,7 +1633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="165">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1114,7 +1647,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="255" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="255">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1125,7 +1658,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1138,13 +1671,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A24629CF-DC01-4A5A-8DDB-45CEF0901319}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="64.140625" style="1" customWidth="1"/>
@@ -1153,7 +1686,7 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1167,7 +1700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="210">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,7 +1711,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="165">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1189,10 +1722,10 @@
         <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="120">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -1206,7 +1739,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="135">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -1220,62 +1753,173 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="90">
       <c r="A6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="1" t="s">
+    </row>
+    <row r="7" spans="1:4" ht="195">
+      <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="195" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="D7" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="150">
+      <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="150">
+      <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="150" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="150" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:4" ht="165">
+      <c r="A10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="135">
+      <c r="A11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="105">
+      <c r="A12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="165">
+      <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>26</v>
+      <c r="B13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="255">
+      <c r="A14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="60">
+      <c r="A15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="60">
+      <c r="A16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="90">
+      <c r="A17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="240">
+      <c r="A18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="255">
+      <c r="A19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1287,24 +1931,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC3B2945-7C08-422D-9D20-9ACCB4CA2BF8}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A43CED54-F8E1-4198-AB15-699332195929}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="64.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="66.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="82.42578125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="2" max="2" width="77.5703125" customWidth="1"/>
+    <col min="3" max="3" width="83" customWidth="1"/>
+    <col min="4" max="4" width="90.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -1317,19 +1960,59 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="315">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>31</v>
-      </c>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="270">
+      <c r="A3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="315">
+      <c r="A4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="105">
+      <c r="A5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Svelte Cheatsheet.xlsx
+++ b/Svelte Cheatsheet.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conor\My Drive\Cheatsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255CC86E-F8C8-4AD5-AC35-E69E703173C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA0DE5D-0CC2-41B9-A14F-12DA1D8994C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-885" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A82B5E65-1D29-4645-8112-DED4FBF5EDB8}"/>
+    <workbookView xWindow="28680" yWindow="5895" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{A82B5E65-1D29-4645-8112-DED4FBF5EDB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Svelte Explained" sheetId="1" r:id="rId1"/>
     <sheet name="Svelte Basics" sheetId="2" r:id="rId2"/>
-    <sheet name="Svelte Advanced" sheetId="4" r:id="rId3"/>
+    <sheet name="Svelte Routing" sheetId="5" r:id="rId3"/>
+    <sheet name="Svelte Advanced" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="101">
   <si>
     <t>Concept</t>
   </si>
@@ -1023,12 +1024,64 @@
   <si>
     <t>Bindings are generally pretty simple to understand. With this textbox example, if we wanted content from the textbox to immediately be shown on screen, we'd have two choices: either create an on:input event handler that triggers every time text is added in the textbox, and adjust it accordingly. Or, the much simpler method: create a bind with bind:value={name}, and force the values to change all at once with a simple bit of svelte syntax.</t>
   </si>
+  <si>
+    <t>Installing a svelte template</t>
+  </si>
+  <si>
+    <t>Installing svelte routing</t>
+  </si>
+  <si>
+    <t>npm install svelte-routing</t>
+  </si>
+  <si>
+    <t>This will allow the addition of Router, Router and Link to allow your website to connect to one another more easily.</t>
+  </si>
+  <si>
+    <t>npx degit sveltejs/template [whatever you want to name it]
+cd [whatever you want to name it]
+npm install</t>
+  </si>
+  <si>
+    <t>This is perhaps the easiest way to start a svelte website. We can start off with installing a svelte template, which will automatically add additional files to hopefully make our lives a lot easier. We then move into the newly created folder using cd [name of folder], before installing an instance of npm with npm install.</t>
+  </si>
+  <si>
+    <t>Import routing into svelte and using it within App.svelte</t>
+  </si>
+  <si>
+    <t>&lt;script&gt;
+    import { Router, Route } from "svelte-routing";
+    import Main from "./pages/Main.svelte";
+    import About from "./pages/About.svelte";
+    import Error from "./pages/Error.svelte";
+&lt;/script&gt;
+&lt;Router&gt;
+    &lt;Route path="/" component={Main} /&gt;
+    &lt;Route path="about" component={About} /&gt;
+    &lt;Route path="*" component={Error} /&gt;
+&lt;/Router&gt;</t>
+  </si>
+  <si>
+    <t>Within the App.svelte file, we can route all of our program using this script. We import Router and Route from svelte-routing, import the main pages from our system all within the script tag of our file, before finally introducing a Router tag containing all our routes.</t>
+  </si>
+  <si>
+    <t>Links</t>
+  </si>
+  <si>
+    <t>&lt;script&gt;
+    import {Link} from "svelte-routing";
+&lt;/script&gt;
+…
+&lt;Link to="/"&gt; Home &lt;/Link&gt;</t>
+  </si>
+  <si>
+    <t>We can introduce Links into our program by importing them to the top of our program. After this, we can then introduce Link elements using the Link tags which in combination with our Router and Route tags in App.svelte will let us move across the page easily.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1128,7 +1181,61 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="30">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1269,32 +1376,45 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{787881F3-7D30-403D-9899-D373695DA227}" name="Table1" displayName="Table1" ref="A1:D3" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
-  <autoFilter ref="A1:D3" xr:uid="{787881F3-7D30-403D-9899-D373695DA227}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{787881F3-7D30-403D-9899-D373695DA227}" name="Table1" displayName="Table1" ref="A1:D5" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+  <autoFilter ref="A1:D5" xr:uid="{787881F3-7D30-403D-9899-D373695DA227}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{20415411-EFA3-4E74-88D4-BF14DC768660}" name="Concept" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{092CCC90-7F38-438E-9C45-EA9B563D2F2A}" name="Code" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{1B0B39DB-639C-4C44-A3D2-C4A83CC344AE}" name="Explained" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{C048CE8B-9F65-41A6-8ADB-F19094373C63}" name="Notes" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{20415411-EFA3-4E74-88D4-BF14DC768660}" name="Concept" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{092CCC90-7F38-438E-9C45-EA9B563D2F2A}" name="Code" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{1B0B39DB-639C-4C44-A3D2-C4A83CC344AE}" name="Explained" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{C048CE8B-9F65-41A6-8ADB-F19094373C63}" name="Notes" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{291B4586-C9E6-49D8-99C6-B13946B84F4F}" name="Table2" displayName="Table2" ref="A1:D19" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{291B4586-C9E6-49D8-99C6-B13946B84F4F}" name="Table2" displayName="Table2" ref="A1:D19" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20">
   <autoFilter ref="A1:D19" xr:uid="{291B4586-C9E6-49D8-99C6-B13946B84F4F}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{0B59059B-6C12-4308-9D8D-74A1B4D5674C}" name="Concept" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{40764E85-42F5-431A-8E38-92945708D70C}" name="Code" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{C3780E31-1913-4904-BAC3-E58EE406A2A0}" name="Explained" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{8ED6C1CD-237A-4B34-B824-3D24E60F04C5}" name="Notes" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{0B59059B-6C12-4308-9D8D-74A1B4D5674C}" name="Concept" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{40764E85-42F5-431A-8E38-92945708D70C}" name="Code" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{C3780E31-1913-4904-BAC3-E58EE406A2A0}" name="Explained" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{8ED6C1CD-237A-4B34-B824-3D24E60F04C5}" name="Notes" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9497EADC-5BF8-49FF-8837-72343279F5D5}" name="Table4" displayName="Table4" ref="A1:D4" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12">
+  <autoFilter ref="A1:D4" xr:uid="{9497EADC-5BF8-49FF-8837-72343279F5D5}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{E090A4BC-2CC8-4050-A40D-ED0F714D961A}" name="Concept" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{3EE5C053-05D2-49C3-B75C-77AE07C22D92}" name="Code" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{38B8E9D2-8989-4D32-8A74-60A92B50AF98}" name="Explained" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{2F2B8E6D-6AC1-4E3A-811C-A6B8E641535C}" name="Notes" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D8977E2F-DCEB-4C09-B4CC-5E0E79863E05}" name="Table3" displayName="Table3" ref="A1:D5" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4">
   <autoFilter ref="A1:D5" xr:uid="{D8977E2F-DCEB-4C09-B4CC-5E0E79863E05}"/>
   <tableColumns count="4">
@@ -1308,9 +1428,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1348,7 +1468,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1454,7 +1574,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1596,7 +1716,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1604,13 +1724,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C6CA81-6993-4908-A7E0-1A91D765FE02}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="A5" sqref="A5:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="42" style="1" customWidth="1"/>
@@ -1619,7 +1739,7 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1633,7 +1753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="165">
+    <row r="2" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1647,7 +1767,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="255">
+    <row r="3" spans="1:4" ht="255" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1659,6 +1779,28 @@
       </c>
       <c r="D3" s="1" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1673,11 +1815,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A24629CF-DC01-4A5A-8DDB-45CEF0901319}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="64.140625" style="1" customWidth="1"/>
@@ -1686,7 +1828,7 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1700,7 +1842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="210">
+    <row r="2" spans="1:4" ht="210" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -1711,7 +1853,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="165">
+    <row r="3" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1725,7 +1867,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="120">
+    <row r="4" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -1739,7 +1881,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="135">
+    <row r="5" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -1753,7 +1895,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="90">
+    <row r="6" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
@@ -1764,7 +1906,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="195">
+    <row r="7" spans="1:4" ht="195" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
@@ -1778,7 +1920,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="150">
+    <row r="8" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
@@ -1789,7 +1931,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="150">
+    <row r="9" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -1803,7 +1945,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="165">
+    <row r="10" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>45</v>
       </c>
@@ -1817,7 +1959,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="135">
+    <row r="11" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>49</v>
       </c>
@@ -1828,7 +1970,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="105">
+    <row r="12" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>52</v>
       </c>
@@ -1839,7 +1981,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="165">
+    <row r="13" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -1853,7 +1995,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="255">
+    <row r="14" spans="1:4" ht="255" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>63</v>
       </c>
@@ -1867,7 +2009,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="60">
+    <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>67</v>
       </c>
@@ -1878,7 +2020,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="60">
+    <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>70</v>
       </c>
@@ -1889,7 +2031,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="90">
+    <row r="17" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>80</v>
       </c>
@@ -1900,7 +2042,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="240">
+    <row r="18" spans="1:3" ht="240" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>82</v>
       </c>
@@ -1911,7 +2053,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="255">
+    <row r="19" spans="1:3" ht="255" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>85</v>
       </c>
@@ -1931,14 +2073,86 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D83425B1-55B0-4AED-B0DF-44451B98AC69}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="44.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="81.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="82.42578125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A43CED54-F8E1-4198-AB15-699332195929}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.42578125" customWidth="1"/>
     <col min="2" max="2" width="77.5703125" customWidth="1"/>
@@ -1946,7 +2160,7 @@
     <col min="4" max="4" width="90.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1960,7 +2174,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="315">
+    <row r="2" spans="1:4" ht="315" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>55</v>
       </c>
@@ -1974,7 +2188,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="270">
+    <row r="3" spans="1:4" ht="270" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>59</v>
       </c>
@@ -1988,7 +2202,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="315">
+    <row r="4" spans="1:4" ht="315" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>73</v>
       </c>
@@ -2002,7 +2216,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="105">
+    <row r="5" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>77</v>
       </c>

--- a/Svelte Cheatsheet.xlsx
+++ b/Svelte Cheatsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conor\My Drive\Cheatsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA0DE5D-0CC2-41B9-A14F-12DA1D8994C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8CAE40-E189-4958-8EE7-BA185FAC386A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="5895" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{A82B5E65-1D29-4645-8112-DED4FBF5EDB8}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="1" activeTab="3" xr2:uid="{A82B5E65-1D29-4645-8112-DED4FBF5EDB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Svelte Explained" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="112">
   <si>
     <t>Concept</t>
   </si>
@@ -56,153 +56,7 @@
     <t>What is Svelte?</t>
   </si>
   <si>
-    <t>Svelte is a web development framework that allows you to build web applications by writing components using a syntax that closely resembles HTML, CSS, and JavaScript. Similar to React and others, Svelte helps you to build and maintain larger websites over a longer period of time.
-One of the key features of a svelte file is that you are basically able to insert the the structure, styling and logic of your website into a single file, which translates to you being able to put HTML, CSS and JavaScript all into one file, which in a sense makes it extremely easy to work with components over a larger codebase.
-Learning any web framework is pretty difficult on its own. I tried to learn React, but I struggled quite a lot. I get the impression, however, that Svelte is going to be a lot easier to learn than other frameworks, and that it will be a more enjoyable experience to use overall.</t>
-  </si>
-  <si>
-    <t>Example template of a very simple svelte file</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">This is an example template of a very simple svelte file. This is an example of a self-contained svelte file, and at the top it contains a firstName, a lastName, as well as a </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>reactive value</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, which is a value which can change as a result of two other variables changing (in this instance, it's just different strings that end up being concatinated with one another.
-When we create it within script, we can then access it, and use it within the main section, both within the p tag, as well as the img tag, and both times using the curly brackets. The styling</t>
-    </r>
-  </si>
-  <si>
-    <t>&lt;script&gt;
-	let src = '/image.gif';
-  let firstName = "Rick";
-  let lastName = "Astley";
-  $: name = firstName + " " + lastName;
-&lt;/script&gt;
-&lt;main&gt;
-  &lt;p&gt;A great man: {name}&lt;/p&gt;
-  &lt;img {src} alt="{name} dances." /&gt;
-&lt;/main&gt;
-&lt;style&gt;
-  p {
-    color: "red";
-  }
-&lt;/style&gt;</t>
-  </si>
-  <si>
-    <t>Reactive component</t>
-  </si>
-  <si>
-    <t>&lt;script&gt;
-  let firstName = "Big";
-  let lastName = "C";
-  $: name = firstName + " " + lastName;
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>Components within Svelte are inherently reactive, meaning they automate automatically in resopnse to changes in their state or props.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">To see our file's progress/view it live, we run in the terminal:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>npm run dev</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Similar to VSCode Go Live, this will let us view the website through npm</t>
-    </r>
-  </si>
-  <si>
-    <t>One of the key differences between Svelte and React is that in Svelte, there isn't a dedicated setState. The setState is basically just a method that exists in React to update component states, so it makes it much much easier to do.</t>
-  </si>
-  <si>
-    <t>Really really basic Svelte</t>
-  </si>
-  <si>
-    <t>&lt;script&gt;
-    let firstName = "Conor";
-    let lastName = "Woollatt";
-    let colour = "blue";
-    $: name = `${firstName} ${lastName}`;
-&lt;/script&gt;
-&lt;main&gt;
-    &lt;h1 style="color: {colour};"&gt;Hello {name}!&lt;/h1&gt;
-    &lt;p&gt;
-        Visit the &lt;a href="https://svelte.dev/tutorial"&gt;Svelte tutorial&lt;/a&gt; to learn how to build Svelte apps.
-    &lt;/p&gt;
-&lt;/main&gt;</t>
-  </si>
-  <si>
-    <t>We have multiple things going on here. The first thing we have is we have a script section which is defining a name variable using a firstName and lastName, as well as a colour. Secondly, we have a main, which we are choosing to pass through the {colour} variable through, as well as a name variable. Both of these can be accessed within our HTML elements, as well as our CSS elements.</t>
-  </si>
-  <si>
     <t>Events</t>
-  </si>
-  <si>
-    <r>
-      <t>For this button, we have given it two methods. Traditional onclick html scripts would involve us having to write onclick=[function name]. This alternative way, we do on</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>click, with a colon between, and then we insert the function name within curly brackets. For this example, we have provided an anonymous arrow function.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">
-We are also able to provide the name of a function within the .svelte file, and then we're able to do everything there. Much more useful</t>
   </si>
   <si>
     <r>
@@ -260,26 +114,7 @@
 {/if}</t>
   </si>
   <si>
-    <t>One of the nice things with svelte is that we can insert conditional if-else statements within our html. We have to type it as {#if [conditional-statement]}, and then indent what we're going to do/show underneath. We can then add an else or multiple else if statements underneath using the {: else if [conditional-statement]} format. We end the entire block of conditional logic with {/if}.
-So the main things are 1: all the if/else/else if is contained within curly brackets, 2: the first if statement begins with a #, and every other statement has : colon, and 3: you end it with {/if}.</t>
-  </si>
-  <si>
-    <t>More complex one:
-    {#if showText &gt; 10}
-        &lt;p&gt;Yeah.&lt;/p&gt;
-    {:else if showText &gt; 5}
-        &lt;p&gt;Text is hidden&lt;/p&gt;
-    {:else}
-        &lt;p&gt;Text is crazy&lt;/p&gt;
-    {/if}</t>
-  </si>
-  <si>
     <t>Nested components</t>
-  </si>
-  <si>
-    <t>The order which you do the script, main and style doesn't matter at all. You can do them in any order, for any file. In addition, because we are working with components, the html may only include a p tag, or something else very small.
-We could even change the order another way to be even weirder. We could have a &lt;script&gt; portion followed by a &lt;p&gt; HTML element. The underneath this, we could add a &lt;style&gt; portion, and then again underneath this we could then again add another &lt;p&gt;, or a &lt;h1&gt;, or something else.
-Pretty cool, right?</t>
   </si>
   <si>
     <t>Nested svelte file called "Nested.svelte" with a single &lt;p&gt; tag:
@@ -293,14 +128,6 @@
 &lt;style&gt;... &lt;/style&gt;</t>
   </si>
   <si>
-    <t>It would be impractical to put your entire app in a single component. Instead, we can import components from other files and include them in our markup.
-We first of all have to create another file with our data within it, which in most circumstances refers simply to other HTML elements. Then after this, we have to import it into the file that we want to have using it.</t>
-  </si>
-  <si>
-    <t>The structure of the import looks like this:
-import [variable name that we're giving it] from "file.svelte". For the most basic examples when you're just importing basic HTML code, we can give it whatever name we want, and then insert it into our original file using &lt;Pizza /&gt;, or whatever name we give it.</t>
-  </si>
-  <si>
     <t>HTML tags</t>
   </si>
   <si>
@@ -331,45 +158,6 @@
       </rPr>
       <t xml:space="preserve"> string}&lt;/p&gt;</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">We are able to have a string variable contain HTML code and show it onto the screen with the correct formatting using the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@html</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> string formatting. This can be extremely useful in certain circumstances.</t>
-    </r>
-  </si>
-  <si>
-    <t>Example reactivitiy
-&lt;script&gt;
-  let count = 0;
-  function increment() {
-  count += 1;
-}
-&lt;/script&gt;
-&lt;button on:click={increment}&gt;
-  Clicked {count}
-  {count === 1 ? 'time' : 'times'}
-&lt;/button&gt;</t>
   </si>
   <si>
     <t>Reactive declarations</t>
@@ -411,14 +199,6 @@
     </r>
   </si>
   <si>
-    <t>When a state on the screen changes, with traditional JS it can be difficult to know exactly what you're meant to do. With a reactive component, it's different.
-When we use a reactive declaration with $: doubled = count * 2, we are declaring that this variable is going to change and react depending on what else is going on within the code.
-Although you could have changed the code to look like this to do exactly the same thing:
-let doubled = count * 2;
-... (within the function) doubled += 2;
-, it is much more difficult to work with in larger code bases, and they're much more important when you need to reference them multiple times in other code, or when you have values that depend on other reactive values.</t>
-  </si>
-  <si>
     <t>Reactive statements</t>
   </si>
   <si>
@@ -432,15 +212,6 @@
 	}</t>
   </si>
   <si>
-    <t>If something is reactive, then it means it's always checking/always on. It's always being updated about the state of other things within the program, and it's always looking to see the situation across the program, whether it's a declaration or a statement.</t>
-  </si>
-  <si>
-    <t>This statement here is similar to the declaration above, except it's an if statement. As we're changing count by 1 every time, the if statement is constantly checking the count variable to see whether it actually matches up to the rest of the program.</t>
-  </si>
-  <si>
-    <t>Updating arrays and objects</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">function addNumber() {
 </t>
@@ -468,22 +239,6 @@
 }
 $: sum = numbers.reduce((total, currentNumber) =&gt; total + currentNumber, 0);</t>
     </r>
-  </si>
-  <si>
-    <t>This is a bit of a weird one, so let the Big C explain.
-In normal JavaScript, if we wanted to add an item to an array, we'd use the following code:
-numbers.push(numbers.length + 1).
-However, because Svelte's reactivity is triggered by assignments, using array methods like push and splice won't necessarily automatically cause updates. Another way to do the same thing, that's a lil bit strange, is to simply create a new list, adding the values from the previous list, then adding the next value and assigning the variable numbers to it. In total, it looks like this:
-numbers = [...numbers, numbers.length + 1]</t>
-  </si>
-  <si>
-    <t>This is how you could do it, if you really wanted to do it the "traditional JS way":
-function addNumber() {
-    numbers.push(numbers.length + 1);
-    numbers = numbers;
-}
-If we wanted to pop the last value from the list using Svelte, we'd do this:
-numbers = numbers.slice(0, -1); // Remove the last element (instead of .pop())</t>
   </si>
   <si>
     <t>Declaring props</t>
@@ -563,64 +318,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>&lt;/p&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Props are one of the most important thing in any web framework, along with components. Props is short for properties, and allow us to pass data from one component to another. We declare a property within the Nested.svelte app, and we can export it to our main app using the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">export </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>keyword.
-One of the key things that we need to do is we need to assign the variable within our main application. We will be loading the main application, and be shown on the screen/used for additional explanations. I don't think I'm explaining it that well, but the code to the left basically will show a p section on the webpage which says "The answer is 42".</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">We can declare default values for props also:
-&lt;script&gt;
-    export </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>let answer = "a mystery";</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-&lt;/script&gt;
-&lt;p&gt;The answer is {answer}&lt;/p&gt;
-These default values can still be overridden in the main app section with &lt;Nested answer={42} /&gt;, but if they're not then answer in this instance automatically becomes "a mystery".</t>
     </r>
   </si>
   <si>
@@ -661,10 +358,6 @@
     </r>
   </si>
   <si>
-    <t>We could add multiple props from a single dictionary in two ways: we could either manually write them all out within the PackageInfo tag, which would take a long time (it would require you writing name={pkg.name}, speed={pkg.speed}… etc). Or you could simply try to add them all in at the same time using the {...pkg} syntax.
-It's slightly odd to use, but it probably makes sense after a certain period of time.</t>
-  </si>
-  <si>
     <t>If, else if and else blocks within svelte</t>
   </si>
   <si>
@@ -677,30 +370,7 @@
 {/if}</t>
   </si>
   <si>
-    <t>Svelte allows you to place if, else if and else blocks within the .svelte file. What is different about this kind of if statement compared to the if statements that would be placed within &lt;script&gt; tags is that this type is only really used to create and show html code. 
-If we want to have an if statement, we have to place it within curly brackets and add a # to the beginning, followed by a {/if} at the end. If we want to add else if and else, these also go within curly brackets, but have a colon instead of a hashtag.</t>
-  </si>
-  <si>
     <t>Keyed each blocks</t>
-  </si>
-  <si>
-    <t>These Keyed each blocks are fucking ridiculous to understand. I'll just copy what learn.svelte.dev says about them, because I honestly cannot be asked:
-By default, then you modify the value of an each block, it will add and remove DOM nodes at the end of the block, and update any values that have changed. That might not be what you want.
-It's easier to show why than to explain. The &lt;Thing&gt; component sets the emoji as a constant on initialization, but the name is passed in via a prop.
-Click the 'Remove first thing' button a few times, and notice what happens:
-It removes the last component.
-It then updates the name value in the remaining DOM nodes, but not the emoji, which is fixed when each &lt;Thing&gt; is created.
-Instead, we'd like to remove only the first &lt;Thing&gt; component and its DOM node, and leave the others unaffected.
-To do that, we specify a unique identifier (or "key") for each iteration of the each block:
-App.svelte
-{#each things as thing (thing.id)}
-	&lt;Thing name={thing.name}/&gt;
-{/each}
-Here, (thing.id) is the key, which tells Svelte how to figure out what to update when the values (name in this example) change.</t>
-  </si>
-  <si>
-    <t>They're hardly used, and can be solved in a much easier to remember way by turning const emoji = emojis[name]; into $: emoji = emojis[name]
-I don't think that the $: method is as efficient, but tbh I literally don't understand/care to understand how this stuck alternative method works</t>
   </si>
   <si>
     <t>Thing.svelte:
@@ -754,11 +424,6 @@
   &lt;p&gt;{error.message}&lt;/p&gt;</t>
   </si>
   <si>
-    <t>Most web applications have to deal with asynchronous data at some point. With this code, multiple things are going on. Firstly, we are awaiting that a promise has been made (that is to say, when we have clicked on the button and created the variable promise using the getRandomNumber() method), then it will begin the await. We then have a kind of try-catch thing going on. If it manages to grab a number, then it'll produce one set of code. If it doesn't managed to grab it, then it'll produce another set of code.
-Dealing with asynchronous data is not something that I'm that familiar with, although it obviously is an important thing with respect to coding for the web.
-The variable name within the catch has to be called error.</t>
-  </si>
-  <si>
     <t>DOM events</t>
   </si>
   <si>
@@ -790,54 +455,6 @@
 &lt;/style&gt;</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">DOM (Document Object Model) events refer to changes made on a page as a result of functions triggered by events on the page. In this example, we've got a DOM event triggered by text being input into a text box. When text is inserted into the box, we trigger the handleInputChange function, which takes in </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>event</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. We then change the displayed to whatever is currently in the box itself.
-The example on the right is a DOM event for mouse movement. The event that is taken in from the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>on:pointermove</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> is the position of the mouse, and you can get the X and Y coordinates by using event.clientX and event.clientY</t>
-    </r>
-  </si>
-  <si>
     <t>DOM event handlers inline (within the &lt;div&gt;)</t>
   </si>
   <si>
@@ -846,9 +463,6 @@
 &lt;/div&gt;</t>
   </si>
   <si>
-    <t>DOM events can of course be placed within the div tag, p tag, or whatever kind of tag if you want to do event handling right there and then with an arrow function. It could be useful for "simplifying" code, but I personally prefer the other method.</t>
-  </si>
-  <si>
     <t>The Once event modifier</t>
   </si>
   <si>
@@ -877,32 +491,6 @@
       <t>={() =&gt; alert("KFC")}&gt;
   yeah
 &lt;/button&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">There are multiple types of event modifiers that can added onto a single event (but they're so niche that they've not even worth mentioning tbh). The top one is the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>once</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> event modifier. The user clicks the button, it works the first time. But if they try again without reloading the page it will no longer work.</t>
     </r>
   </si>
   <si>
@@ -931,29 +519,6 @@
 &lt;/button&gt;</t>
   </si>
   <si>
-    <t>This is really very complicated to explain, but in short, all of this code is a way of creating custom event handlers, and specifically event dispatchers.
-If we start simply, the first thing we're doing is bringing in Inner.svelte into App.svelte. This means that we're creating a button, and we're giving it an on:click event handler. When the button is clicked, it goes to the sayHello() function, which then does a dispatch.
-To create a dispatch, you first have to import the createEventDispatch item from "svelte", and then assign a variable/const with whatever name as a createEventDispatch() object/item/whatever it is.
-The dispatch is kind of strange. We give is a custom event called click (happens to also be the name of a proper event), and then we later on provide a text value that says "Hello!". When we look back to our App.svelte file, we can see that the Inner tag has an on:click, which calls its own function called handleMessage, which is already within its own file. We have an event which is passed through, in which we have assigned the text attribute to "Hello!", and then we end up calling this as an alert.
-It's a very convoluted way of creating component events. It's kind of strange, but it ends up working.</t>
-  </si>
-  <si>
-    <t>ChatGPT explain:
-In App.svelte:
-- We import the Inner component from './Inner.svelte'.
-- We define a function handleMessage(event) to handle the custom event dispatched by the Inner component.
-- We render the Inner component and attach an event listener (on:click) to it. This event listener calls the handleMessage function when the custom event is emitted.
-In Inner.svelte:
-- We import the createEventDispatcher function from 'svelte'.
-    We create an event dispatcher named dispatch using createEventDispatcher().
-- We define a function sayHello() that dispatches a custom event named 'click' with a detail object containing the text 'Hello!'.
-- We render a button that, when clicked, triggers the sayHello function, resulting in the dispatch of the custom event.
-Summary:
-- The Inner component dispatches a custom event named 'click' when the button is clicked.
-- The App component listens for the 'click' event emitted by the Inner component and handles it by displaying an alert with the text 'Hello!'.
-- This demonstrates how parent and child components can communicate via custom events in a Svelte application.</t>
-  </si>
-  <si>
     <t>Event forwarding</t>
   </si>
   <si>
@@ -963,9 +528,6 @@
   import Inner from './Inner.svelte';
 &lt;/script&gt;
 &lt;Inner /&gt;</t>
-  </si>
-  <si>
-    <t>With event forwarding, we can create multiple svelte files forward the createEventDispatcher from the Inner.svelte file to the Outer.svelte file. Although with the amount of code that is being produced here it isn't practical, it highlights creating multiple files which are responsible for a single function. An Inner component can be responsible for when the action is triggered, and the Outer component can be responsible for handling it.</t>
   </si>
   <si>
     <t>Text Bindings</t>
@@ -994,9 +556,6 @@
   &lt;input type="range" bind:value={b} min="0" max="10" /&gt;
 &lt;/label&gt;
 &lt;p&gt;{a} + {b} = {a + b}&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>We can do a similar kind of binding here also. Here, we're binding the variables a and b (both representing different numbers), this time we're binding a text input that only takes numbers, and a range bar that can be adjusted to represent different values. By binding these two input types, when the number input goes up, the range input copies it, and vise versa.</t>
   </si>
   <si>
     <t>Checkbox binding</t>
@@ -1019,36 +578,1066 @@
 &lt;button disabled={!yes}&gt;Subscribe&lt;/button&gt;</t>
   </si>
   <si>
-    <t>Extremely useful. When a checkbox has been ticked (basically selected), we can bind the checked value to a variable such as yes. When it is yes (when the tickbox has been selected), we can then perform an if statement that will allow us to disable/enable a box, show specific text, or do whatever other method we'd like to have done as a result.</t>
-  </si>
-  <si>
-    <t>Bindings are generally pretty simple to understand. With this textbox example, if we wanted content from the textbox to immediately be shown on screen, we'd have two choices: either create an on:input event handler that triggers every time text is added in the textbox, and adjust it accordingly. Or, the much simpler method: create a bind with bind:value={name}, and force the values to change all at once with a simple bit of svelte syntax.</t>
-  </si>
-  <si>
-    <t>Installing a svelte template</t>
-  </si>
-  <si>
     <t>Installing svelte routing</t>
   </si>
   <si>
-    <t>npm install svelte-routing</t>
-  </si>
-  <si>
-    <t>This will allow the addition of Router, Router and Link to allow your website to connect to one another more easily.</t>
-  </si>
-  <si>
-    <t>npx degit sveltejs/template [whatever you want to name it]
-cd [whatever you want to name it]
+    <t>Import routing into svelte and using it within App.svelte</t>
+  </si>
+  <si>
+    <t>Links</t>
+  </si>
+  <si>
+    <t>Svelte is a web development framework enabling the creation of web applications through component-based syntax akin to HTML, CSS, and JavaScript. Unlike React and similar frameworks, Svelte facilitates building and maintaining larger websites with ease. Its distinctive feature lies in consolidating the structure, styling, and logic of a website into a single file. This amalgamation of HTML, CSS, and JavaScript fosters seamless component management across extensive codebases.&lt;br&gt;&lt;br&gt;Learning any web framework can be challenging. However, Svelte appears to offer a more straightforward learning curve compared to other frameworks like React, promising a more gratifying development experience overall.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Unlike React, Svelte lacks a dedicated </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>setState</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> method. Instead, state updates are straightforward, simplifying the development process.</t>
+    </r>
+  </si>
+  <si>
+    <t>Example template of a very simple Svelte file</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This serves as an example template of a simple Svelte file. It features a self-contained structure with JavaScript logic at the top, including variables and a reactive value. The HTML section utilizes these variables within curly brackets for dynamic content rendering. Styling instructions are encapsulated within the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>style</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tag.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The order of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>script</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>main</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>style</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sections is arbitrary, offering flexibility in file structure. HTML sections can be minimal, comprising only essential elements. The arrangement can be further altered, for instance, placing </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>script</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> before </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in HTML, followed by </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>style</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, followed by another </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>h1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Installing a Svelte template</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This method provides a straightforward approach to commence a Svelte project. Begin by installing a Svelte template, which automatically populates the project with necessary files, simplifying setup. Navigate into the newly created folder using </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>cd [your-project-name]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, followed by installing npm dependencies using </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>npm install</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Installing Svelte routing</t>
+  </si>
+  <si>
+    <t>Integrating Svelte routing facilitates seamless navigation between website pages.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To view our file's progress/live preview, run in the terminal:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t xml:space="preserve">npm run dev
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Similar to VSCode Live Server, this allows viewing the website through npm.</t>
+    </r>
+  </si>
+  <si>
+    <t>html
+&lt;script&gt;
+  let src = '/image.gif';
+  let firstName = "Rick";
+  let lastName = "Astley";
+  $: name = `${firstName} ${lastName}`;
+&lt;/script&gt;
+&lt;main&gt;
+  &lt;p&gt;Picture of: {name}&lt;/p&gt;
+  &lt;img {src} alt="{name} image." /&gt;
+&lt;/main&gt;
+&lt;style&gt;
+   p {
+   color: red;
+   }
+&lt;/style&gt;</t>
+  </si>
+  <si>
+    <t>bash
+npx degit sveltejs/template [your-project-name]
+cd [your-project-name]
 npm install</t>
   </si>
   <si>
-    <t>This is perhaps the easiest way to start a svelte website. We can start off with installing a svelte template, which will automatically add additional files to hopefully make our lives a lot easier. We then move into the newly created folder using cd [name of folder], before installing an instance of npm with npm install.</t>
-  </si>
-  <si>
-    <t>Import routing into svelte and using it within App.svelte</t>
-  </si>
-  <si>
-    <t>&lt;script&gt;
+    <t>bash
+npm install svelte-routing</t>
+  </si>
+  <si>
+    <t>Basic Svelte Component</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This example illustrates a basic Svelte component. It defines variables for a first name, a last name, and a color. The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> variable is calculated based on the first and last names. The main content includes a heading displaying the name with a specified color and a paragraph with a link to the Svelte tutorial.</t>
+    </r>
+  </si>
+  <si>
+    <t>html
+&lt;script&gt;
+  let firstName = "Conor";
+  let lastName = "Woollatt";
+  let color = "blue";
+  $: name = \`${firstName} ${lastName}\`;
+&lt;/script&gt;
+&lt;main&gt;
+  &lt;h1 style="color: {color};"&gt;Hello {name}!&lt;/h1&gt;
+  &lt;p&gt;
+    Visit the &lt;a href="https://svelte.dev/tutorial"&gt;Svelte tutorial&lt;/a&gt; to learn how to build Svelte apps.
+  &lt;/p&gt;
+&lt;/main&gt;</t>
+  </si>
+  <si>
+    <t>Reactive Component</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Svelte components are reactive, meaning they automatically update in response to changes in their state or props. In this example, the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> variable is reactive, updating whenever </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>firstName</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>lastName</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> changes. This reactivity simplifies state management and ensures UI consistency.</t>
+    </r>
+  </si>
+  <si>
+    <t>html
+&lt;script&gt;
+  let firstName = "First";
+  let lastName = "Name";
+  $: name = firstName + " " + lastName;
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Example of reactivity using a button:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>html
+&lt;script&gt;
+  let count = 0;
+  function increment() {
+    count += 1;
+  }
+&lt;/script&gt;
+&lt;button on:click={increment}&gt;
+Clicked {count}
+{count === 1 ? 'time' : 'times'}
+&lt;/button&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Svelte provides concise event handling syntax within HTML elements. In this example, a button triggers color changes on double-click and single-click events. Complex event handling functions can be defined separately and called inline or passed as event handlers. This approach enhances code readability and maintainability.</t>
+  </si>
+  <si>
+    <t>It's recommended to use separate functions for complex event handling to improve code readability and maintainability.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Svelte allows conditional rendering directly within HTML templates. The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>#if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> block displays content if the condition is true, while the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>{:else}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> block provides an alternative when the condition is false. This enables dynamic content based on changing conditions, enhancing user experience.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">For more complex conditions, use </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>{:else if}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> blocks to handle multiple cases.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Svelte allows rendering HTML strings directly within components using the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>{@html ...}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> syntax. This is useful for dynamically generated HTML content or when integrating with external sources. However, use caution to prevent XSS vulnerabilities when rendering user-generated content.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Rendering HTML strings with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>{@html ...}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> should be used judiciously to avoid XSS vulnerabilities.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Reactive declarations in Svelte enable automatic updates based on changes in dependent variables. The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>doubled</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> variable is automatically recalculated whenever </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> changes. This declarative approach simplifies state management and ensures UI consistency.</t>
+    </r>
+  </si>
+  <si>
+    <t>Reactive declarations are especially useful when multiple variables depend on the same state.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Reactive statements in Svelte allow conditional logic to be automatically triggered based on changes in state. In this example, an alert is displayed when </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> reaches a certain threshold, and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is reset to 0. Reactive statements streamline conditional updates and enhance user feedback.</t>
+    </r>
+  </si>
+  <si>
+    <t>Use reactive statements sparingly and consider their impact on performance, as they can trigger frequent updates.</t>
+  </si>
+  <si>
+    <t>Array and Object Updates</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Svelte's reactivity relies on assignment, so when updating arrays or objects, it's necessary to create a new instance to trigger updates. In this example, the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>addNumber</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> function creates a new array with an additional number appended to the end. This ensures that changes to the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>numbers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> array are properly reflected in the UI.</t>
+    </r>
+  </si>
+  <si>
+    <t>When updating arrays or objects, always create a new instance to trigger reactivity.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Props facilitate communication between components in Svelte. In this example, the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>answer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> prop is declared in the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>Nested</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> component and passed a value of 42 from the parent component. Props enable modularization and reusability by allowing components to be parameterized and customized based on external data.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Default values can be declared for props using the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>export let name = defaultValue;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> syntax.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Svelte allows spreading props from an object to a component, simplifying the passing of multiple props. In this example, all properties of the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>pkg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> object are passed as props to the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>PackageInfo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> component using the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>{...pkg}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> syntax. This reduces redundancy and enhances code maintainability when dealing with complex data structures.</t>
+    </r>
+  </si>
+  <si>
+    <t>Using spread props improves code readability and reduces redundancy when passing multiple props.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Svelte supports conditional rendering with if, else if, and else blocks directly within components. The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>#if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> block evaluates the condition and displays content accordingly. Additional conditions can be handled with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>{:else if}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>{:else}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> blocks. This enables dynamic content generation based on changing conditions, enhancing the flexibility of Svelte components.</t>
+    </r>
+  </si>
+  <si>
+    <t>For complex conditions, consider extracting logic into computed properties or functions to improve readability.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Modularization is essential for managing complexity in web applications. Svelte allows nesting components within each other, enabling a hierarchical structure for better organization and reusability. In this example, the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>Nested</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> component is imported and included within the main app file, allowing for a clean separation of concerns and easier maintenance of code.</t>
+    </r>
+  </si>
+  <si>
+    <t>Organizing components into separate files promotes code maintainability and reusability.</t>
+  </si>
+  <si>
+    <t>DOM events in Svelte enable interactivity by responding to user actions on the page. In this example, the handleInputChange function updates the text variable with the input value whenever the input field content changes. This allows for real-time data binding and dynamic UI updates based on user input.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Svelte allows inline event handlers within HTML elements, providing a concise way to handle DOM events. In this example, the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>on:pointermove</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> event updates the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> object with the current mouse coordinates, which are then displayed in the UI. While inline event handlers can simplify code, they may become less maintainable in complex applications and are best suited for simple interactions.</t>
+    </r>
+  </si>
+  <si>
+    <t>Inline event handlers are suitable for simple interactions but consider using separate event handling functions for complex logic to improve code readability.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Svelte provides event modifiers to customize event handling behavior. The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>once</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> modifier ensures that the event listener is removed after the first invocation, preventing multiple executions. In this example, the button triggers an alert only once, even with repeated clicks, enhancing user experience by avoiding repetitive alerts.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Text bindings in Svelte enable two-way data binding between input elements and component state. In this example, the input field value is bound to the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> variable, allowing changes in the input to immediately update the displayed text. Text bindings streamline form handling and user input processing, enhancing interactivity in Svelte applications.</t>
+    </r>
+  </si>
+  <si>
+    <t>Text bindings facilitate real-time updates between input elements and component state, enhancing user interaction.</t>
+  </si>
+  <si>
+    <t>Numeric bindings in Svelte enable synchronization between input fields and numeric variables. This example demonstrates binding a numerical value to both a number input and a range input, providing a unified interface for adjusting numeric values. Numeric bindings streamline user interactions and ensure consistent data representation across different input elements.</t>
+  </si>
+  <si>
+    <t>Numeric bindings ensure consistent data representation and streamline user interactions in Svelte applications.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Checkbox bindings in Svelte enable two-way data binding between checkbox states and component variables. In this example, the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>yes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> variable is bound to the checkbox's checked state, controlling the visibility of accompanying messages and enabling conditional rendering. Checkbox bindings enhance user interactions and facilitate dynamic content presentation based on user preferences.</t>
+    </r>
+  </si>
+  <si>
+    <t>Checkbox bindings enable dynamic content presentation and user interaction based on checkbox states in Svelte applications.</t>
+  </si>
+  <si>
+    <t>Svelte Routing provides essential functionality for creating multi-page applications with seamless navigation. By installing the svelte-routing package via npm, developers can easily incorporate Router, Route, and Link components into their Svelte projects, enabling efficient navigation between different pages or views within the application.</t>
+  </si>
+  <si>
+    <t>To incorporate routing functionality into a Svelte application, developers need to import necessary components such as Router and Route from the svelte-routing package. These components enable defining routes for different pages or views within the application. In the example provided, routes for the main page (Main), about page (About), and error page (Error) are defined using the Route component within the Router tag.</t>
+  </si>
+  <si>
+    <t>Links play a crucial role in enabling seamless navigation between different views or pages in a Svelte application. By importing the Link component from svelte-routing, developers can create clickable links that transition users to specific routes defined in the application. In the provided example, a link to the home page is created using the Link component, with the to attribute specifying the target route (/ for the home page).</t>
+  </si>
+  <si>
+    <t>html
+&lt;script&gt;
+    import {Link} from "svelte-routing";
+&lt;/script&gt;
+…
+&lt;Link to="/"&gt; Home &lt;/Link&gt;</t>
+  </si>
+  <si>
+    <t>html
+&lt;script&gt;
     import { Router, Route } from "svelte-routing";
     import Main from "./pages/Main.svelte";
     import About from "./pages/About.svelte";
@@ -1061,27 +1650,78 @@
 &lt;/Router&gt;</t>
   </si>
   <si>
-    <t>Within the App.svelte file, we can route all of our program using this script. We import Router and Route from svelte-routing, import the main pages from our system all within the script tag of our file, before finally introducing a Router tag containing all our routes.</t>
-  </si>
-  <si>
-    <t>Links</t>
-  </si>
-  <si>
-    <t>&lt;script&gt;
-    import {Link} from "svelte-routing";
-&lt;/script&gt;
-…
-&lt;Link to="/"&gt; Home &lt;/Link&gt;</t>
-  </si>
-  <si>
-    <t>We can introduce Links into our program by importing them to the top of our program. After this, we can then introduce Link elements using the Link tags which in combination with our Router and Route tags in App.svelte will let us move across the page easily.</t>
+    <r>
+      <t xml:space="preserve">bash
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>npm install svelte-routing</t>
+    </r>
+  </si>
+  <si>
+    <t>Understanding the functionality of keyed each blocks can be challenging. Let's refer to the explanation provided on learn.svelte.dev for clarity:
+By default, when modifying the value of an each block, Svelte adds and removes DOM nodes at the end of the block while updating any values that have changed. However, this default behavior may not always align with our desired outcome.
+To illustrate this, consider the scenario where a component, such as &lt;Thing&gt;, initializes the emoji as a constant but receives the name via a prop. Upon clicking the 'Remove first thing' button multiple times, observe the following:
+1. The last component is removed.
+2. The name value in the remaining DOM nodes is updated, but the emoji remains unchanged since it is fixed upon creation of each &lt;Thing&gt; component.
+In order to address this issue and selectively remove only the first &lt;Thing&gt; component along with its associated DOM node while leaving the others unaffected, we introduce the concept of unique identifiers, commonly referred to as "keys," for each iteration within the each block:
+{#each things as thing (thing.id)}
+    &lt;Thing name={thing.name}/&gt;
+{/each}
+In this context, (thing.id) serves as the key, enabling Svelte to discern how to manage updates when values, such as the name in this example, undergo changes.</t>
+  </si>
+  <si>
+    <t>Handling asynchronous data is a common requirement in web applications. Let's dissect the provided code to understand its functionality:
+Firstly, the code involves awaiting a promise, which signifies that it will pause execution until the promise returned by the getRandomNumber() method is resolved (typically after clicking a button to trigger this action).
+Following the await keyword, there is a try-catch block. If the promise resolves successfully, the code within the try block will execute, allowing for one set of actions to be performed. Conversely, if an error occurs during the execution of the promise, the catch block will handle it, executing a different set of actions.
+It's essential to note that when catching errors in asynchronous code, the variable used to represent the error within the catch block conventionally named "error".
+While dealing with asynchronous data may seem daunting at first, it's a crucial aspect of web development that requires careful consideration and handling to ensure smooth application behavior.</t>
+  </si>
+  <si>
+    <t>They're hardly used, and can be solved in a much easier to remember way by turning const emoji = emojis[name]; into $: emoji = emojis[name]
+I don't think that the $: method is as efficient, but I can't confirm that.</t>
+  </si>
+  <si>
+    <t>At its core, this code is about creating custom event handlers and dispatchers.
+Firstly, we import the Inner.svelte component into App.svelte. This component includes a button with an on:click event handler. When clicked, it triggers the sayHello() function, which initiates a dispatch.
+To create a dispatch, we import createEventDispatch from "svelte" and assign it to a variable or constant.
+The dispatch itself is a bit peculiar. We define a custom event named "click" (coincidentally, the same name as a standard event). Later, we provide a text value of "Hello!" as part of this dispatch.
+In the App.svelte file, the Inner component has its own on:click handler, which calls a function called handleMessage defined within its own file. This function receives an event, to which we've assigned the text attribute as "Hello!". Subsequently, we invoke an alert with this message.
+In summary, this code implements a somewhat intricate method for handling component events. Although it may seem unconventional, it effectively achieves its intended functionality.</t>
+  </si>
+  <si>
+    <t>Event forwarding allows us to pass the createEventDispatcher from Inner.svelte to Outer.svelte, facilitating communication between multiple Svelte files. While the code generated may seem extensive, it underscores the concept of distributing responsibilities across multiple files. In this setup, the Inner component triggers the action, while the Outer component manages its handling. This approach promotes modularity and separation of concerns, enabling cleaner and more maintainable code architecture.</t>
+  </si>
+  <si>
+    <t>ChatGPT explain:
+In App.svelte:
+- We import the Inner component from './Inner.svelte'.
+- We define a function handleMessage(event) to handle the custom event dispatched by the Inner component.
+- We render the Inner component and attach an event listener (on:click) to it. This event listener calls the handleMessage function when the custom event is emitted.
+In Inner.svelte:
+- We import the createEventDispatcher function from 'svelte'.
+- We create an event dispatcher named dispatch using createEventDispatcher().
+- We define a function sayHello() that dispatches a custom event named 'click' with a detail object containing the text 'Hello!'.
+- We render a button that, when clicked, triggers the sayHello function, resulting in the dispatch of the custom event.
+Summary:
+- The Inner component dispatches a custom event named 'click' when the button is clicked.
+- The App component listens for the 'click' event emitted by the Inner component and handles it by displaying an alert with the text 'Hello!'.
+- This demonstrates how parent and child components can communicate via custom events in a Svelte application.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1104,6 +1744,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1163,7 +1808,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1177,11 +1822,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="24">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1344,24 +1998,6 @@
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1376,13 +2012,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{787881F3-7D30-403D-9899-D373695DA227}" name="Table1" displayName="Table1" ref="A1:D5" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{787881F3-7D30-403D-9899-D373695DA227}" name="Table1" displayName="Table1" ref="A1:D5" totalsRowShown="0">
   <autoFilter ref="A1:D5" xr:uid="{787881F3-7D30-403D-9899-D373695DA227}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{20415411-EFA3-4E74-88D4-BF14DC768660}" name="Concept" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{092CCC90-7F38-438E-9C45-EA9B563D2F2A}" name="Code" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{1B0B39DB-639C-4C44-A3D2-C4A83CC344AE}" name="Explained" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{C048CE8B-9F65-41A6-8ADB-F19094373C63}" name="Notes" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{20415411-EFA3-4E74-88D4-BF14DC768660}" name="Concept"/>
+    <tableColumn id="2" xr3:uid="{092CCC90-7F38-438E-9C45-EA9B563D2F2A}" name="Code"/>
+    <tableColumn id="3" xr3:uid="{1B0B39DB-639C-4C44-A3D2-C4A83CC344AE}" name="Explained"/>
+    <tableColumn id="4" xr3:uid="{C048CE8B-9F65-41A6-8ADB-F19094373C63}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1726,11 +2362,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C6CA81-6993-4908-A7E0-1A91D765FE02}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:C5"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="42" style="1" customWidth="1"/>
@@ -1739,69 +2375,71 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="165" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4" ht="105">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="255" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="B2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="216.75">
+      <c r="A3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="60">
+      <c r="A4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" ht="25.5">
+      <c r="A5" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1815,11 +2453,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A24629CF-DC01-4A5A-8DDB-45CEF0901319}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView topLeftCell="B18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="64.140625" style="1" customWidth="1"/>
@@ -1828,7 +2466,7 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1842,226 +2480,250 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="210" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4" ht="191.25">
+      <c r="A2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="168">
+      <c r="A3" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="120">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="135">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="90">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="195">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C7" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="150">
+      <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="165" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="C8" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="75">
+      <c r="A9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="165">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="135">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="105">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="165">
+      <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C13" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="255">
+      <c r="A14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="75">
+      <c r="A15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="195" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="C15" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="60">
+      <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="150" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="C16" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="75">
+      <c r="A17" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="150" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C17" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="240">
+      <c r="A18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="C18" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="255">
+      <c r="A19" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="165" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="165" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="255" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="240" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="255" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>87</v>
+      <c r="C19" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2076,11 +2738,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D83425B1-55B0-4AED-B0DF-44451B98AC69}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="44.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -2089,7 +2751,7 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2103,37 +2765,37 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="60">
       <c r="A2" s="1" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="180">
       <c r="A3" s="1" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="90">
       <c r="A4" s="1" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2148,11 +2810,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A43CED54-F8E1-4198-AB15-699332195929}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25.42578125" customWidth="1"/>
     <col min="2" max="2" width="77.5703125" customWidth="1"/>
@@ -2160,7 +2822,7 @@
     <col min="4" max="4" width="90.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2174,57 +2836,57 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="315" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="390">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="270" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="270">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="315" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="315">
       <c r="A4" s="1" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="105">
       <c r="A5" s="1" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="D5" s="1"/>
     </row>
